--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B2" t="n">
+        <v>119.5218937000797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.02057790447299</v>
+      </c>
+      <c r="D2" t="n">
+        <v>200.3242936403926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B2" t="n">
-        <v>141.3473475440687</v>
-      </c>
-      <c r="C2" t="n">
-        <v>69.58443128199464</v>
-      </c>
-      <c r="D2" t="n">
-        <v>217.6217425458413</v>
-      </c>
-      <c r="E2" t="n">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>123.7371201229458</v>
+        <v>151.19471606162</v>
       </c>
       <c r="C3" t="n">
-        <v>51.88290514408923</v>
+        <v>74.82071104436861</v>
       </c>
       <c r="D3" t="n">
-        <v>201.0610142027041</v>
+        <v>229.612252891814</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44894</v>
@@ -513,199 +513,199 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B4" t="n">
+        <v>132.724566720632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55.02994081252795</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214.2691315659042</v>
+      </c>
+      <c r="E4" t="n">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B4" t="n">
-        <v>154.8421851095712</v>
-      </c>
-      <c r="C4" t="n">
-        <v>77.46821764103191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>231.0484529602416</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B5" t="n">
+        <v>139.2587599673557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.28118932144602</v>
+      </c>
+      <c r="D5" t="n">
+        <v>216.5350841266647</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B5" t="n">
-        <v>140.672682532329</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62.76133757793981</v>
-      </c>
-      <c r="D5" t="n">
-        <v>218.4145463385474</v>
-      </c>
-      <c r="E5" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B6" t="n">
+        <v>168.3091301322584</v>
+      </c>
+      <c r="C6" t="n">
+        <v>92.46478539964311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>245.9620838691458</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B6" t="n">
-        <v>144.4493602744578</v>
-      </c>
-      <c r="C6" t="n">
-        <v>69.53673639407951</v>
-      </c>
-      <c r="D6" t="n">
-        <v>220.4137689660446</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B7" t="n">
+        <v>210.9252193907248</v>
+      </c>
+      <c r="C7" t="n">
+        <v>130.0356642712283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>292.7724454862013</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B7" t="n">
-        <v>170.2604953649642</v>
-      </c>
-      <c r="C7" t="n">
-        <v>91.83844280196243</v>
-      </c>
-      <c r="D7" t="n">
-        <v>247.9681137242206</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B8" t="n">
+        <v>226.0407902084632</v>
+      </c>
+      <c r="C8" t="n">
+        <v>143.9563859012819</v>
+      </c>
+      <c r="D8" t="n">
+        <v>303.9184967185307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B8" t="n">
-        <v>212.5361580886453</v>
-      </c>
-      <c r="C8" t="n">
-        <v>136.5734304011962</v>
-      </c>
-      <c r="D8" t="n">
-        <v>288.342751387221</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="B9" t="n">
-        <v>230.33303298496</v>
+        <v>201.7609329106537</v>
       </c>
       <c r="C9" t="n">
-        <v>150.368978336785</v>
+        <v>123.0204130178</v>
       </c>
       <c r="D9" t="n">
-        <v>306.1912315295652</v>
+        <v>286.3897263011905</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44929</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B10" t="n">
+        <v>132.5022491760066</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.59688197878118</v>
+      </c>
+      <c r="D10" t="n">
+        <v>216.1999820781447</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B10" t="n">
-        <v>195.7699361365154</v>
-      </c>
-      <c r="C10" t="n">
-        <v>116.4399806264009</v>
-      </c>
-      <c r="D10" t="n">
-        <v>278.0768296288835</v>
-      </c>
-      <c r="E10" t="n">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B11" t="n">
+        <v>68.78188505651345</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.04605958459694</v>
+      </c>
+      <c r="D11" t="n">
+        <v>152.1544085417463</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B11" t="n">
-        <v>128.426651866303</v>
-      </c>
-      <c r="C11" t="n">
-        <v>54.12332504839765</v>
-      </c>
-      <c r="D11" t="n">
-        <v>207.3641756735351</v>
-      </c>
-      <c r="E11" t="n">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40.78703582836867</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-39.5483452569497</v>
+      </c>
+      <c r="D12" t="n">
+        <v>122.127517740702</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B12" t="n">
-        <v>66.57390523210066</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-13.42966903201204</v>
-      </c>
-      <c r="D12" t="n">
-        <v>149.7077088901445</v>
-      </c>
-      <c r="E12" t="n">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B13" t="n">
-        <v>37.19657204435281</v>
+        <v>50.14617434067252</v>
       </c>
       <c r="C13" t="n">
-        <v>-43.69508416553685</v>
+        <v>-29.69629803418273</v>
       </c>
       <c r="D13" t="n">
-        <v>113.1480720497655</v>
+        <v>129.2674034304787</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44957</v>
@@ -713,59 +713,59 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B14" t="n">
+        <v>81.10355421646435</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.596740370395739</v>
+      </c>
+      <c r="D14" t="n">
+        <v>165.9709431611709</v>
+      </c>
+      <c r="E14" t="n">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B14" t="n">
-        <v>47.04105638296178</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-26.89346914619984</v>
-      </c>
-      <c r="D14" t="n">
-        <v>128.3457751055909</v>
-      </c>
-      <c r="E14" t="n">
-        <v>102</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B15" t="n">
-        <v>81.42794895527243</v>
+        <v>178.4615678220926</v>
       </c>
       <c r="C15" t="n">
-        <v>1.807091419656475</v>
+        <v>97.09920831166558</v>
       </c>
       <c r="D15" t="n">
-        <v>153.9865571398365</v>
+        <v>261.6874565405475</v>
       </c>
       <c r="E15" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B16" t="n">
-        <v>177.2369536452368</v>
+        <v>153.9870342101021</v>
       </c>
       <c r="C16" t="n">
-        <v>93.11289348183766</v>
+        <v>75.68325139083014</v>
       </c>
       <c r="D16" t="n">
-        <v>258.649410935297</v>
+        <v>234.6238317845911</v>
       </c>
       <c r="E16" t="n">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44978</v>
@@ -773,39 +773,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B17" t="n">
+        <v>124.4510133948836</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46.10265104494565</v>
+      </c>
+      <c r="D17" t="n">
+        <v>205.5402024589902</v>
+      </c>
+      <c r="E17" t="n">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B17" t="n">
-        <v>149.4525435958474</v>
-      </c>
-      <c r="C17" t="n">
-        <v>67.91727954786613</v>
-      </c>
-      <c r="D17" t="n">
-        <v>225.7858760267393</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B18" t="n">
-        <v>124.6265462168092</v>
+        <v>141.783439330113</v>
       </c>
       <c r="C18" t="n">
-        <v>43.10145568490063</v>
+        <v>60.57003687991867</v>
       </c>
       <c r="D18" t="n">
-        <v>202.6207997222531</v>
+        <v>226.9890461890507</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44985</v>
@@ -813,221 +813,201 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>135.4206111939607</v>
+      </c>
+      <c r="C19" t="n">
+        <v>54.14904818622073</v>
+      </c>
+      <c r="D19" t="n">
+        <v>211.1668725484502</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B19" t="n">
-        <v>142.7547070211778</v>
-      </c>
-      <c r="C19" t="n">
-        <v>59.81975234228187</v>
-      </c>
-      <c r="D19" t="n">
-        <v>221.6231627025564</v>
-      </c>
-      <c r="E19" t="n">
-        <v>84</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B20" t="n">
+        <v>128.3202110807085</v>
+      </c>
+      <c r="C20" t="n">
+        <v>49.21562922840144</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217.4769266400932</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>132.4782699534313</v>
-      </c>
-      <c r="C20" t="n">
-        <v>53.91983402828888</v>
-      </c>
-      <c r="D20" t="n">
-        <v>215.1255445670555</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B21" t="n">
+        <v>139.7492001831346</v>
+      </c>
+      <c r="C21" t="n">
+        <v>52.36954737906694</v>
+      </c>
+      <c r="D21" t="n">
+        <v>217.0190856107612</v>
+      </c>
+      <c r="E21" t="n">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B21" t="n">
-        <v>123.745078900409</v>
-      </c>
-      <c r="C21" t="n">
-        <v>44.9370713836548</v>
-      </c>
-      <c r="D21" t="n">
-        <v>202.4537423417724</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B22" t="n">
+        <v>178.5145087994659</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100.4546583130691</v>
+      </c>
+      <c r="D22" t="n">
+        <v>260.6788037806093</v>
+      </c>
+      <c r="E22" t="n">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B22" t="n">
-        <v>131.5160140645479</v>
-      </c>
-      <c r="C22" t="n">
-        <v>48.3995056471344</v>
-      </c>
-      <c r="D22" t="n">
-        <v>210.3176706899781</v>
-      </c>
-      <c r="E22" t="n">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B23" t="n">
+        <v>221.1574187494244</v>
+      </c>
+      <c r="C23" t="n">
+        <v>136.6024155778056</v>
+      </c>
+      <c r="D23" t="n">
+        <v>303.1266865960901</v>
+      </c>
+      <c r="E23" t="n">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B23" t="n">
-        <v>166.9627563778859</v>
-      </c>
-      <c r="C23" t="n">
-        <v>88.23268343931019</v>
-      </c>
-      <c r="D23" t="n">
-        <v>242.0509584486861</v>
-      </c>
-      <c r="E23" t="n">
-        <v>114</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45027</v>
+        <v>45034</v>
       </c>
       <c r="B24" t="n">
-        <v>220.0106093412314</v>
+        <v>237.336268815882</v>
       </c>
       <c r="C24" t="n">
-        <v>145.2365391065975</v>
+        <v>159.3260142860308</v>
       </c>
       <c r="D24" t="n">
-        <v>293.0616856031899</v>
+        <v>321.1001972746386</v>
       </c>
       <c r="E24" t="n">
         <v>72</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B25" t="n">
+        <v>182.8931021894318</v>
+      </c>
+      <c r="C25" t="n">
+        <v>109.6774277395014</v>
+      </c>
+      <c r="D25" t="n">
+        <v>267.2305691951736</v>
+      </c>
+      <c r="E25" t="n">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B25" t="n">
-        <v>252.8981953292698</v>
-      </c>
-      <c r="C25" t="n">
-        <v>168.8981005725337</v>
-      </c>
-      <c r="D25" t="n">
-        <v>332.3176998932451</v>
-      </c>
-      <c r="E25" t="n">
-        <v>72</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B26" t="n">
-        <v>202.6558287600927</v>
+        <v>147.2901845549214</v>
       </c>
       <c r="C26" t="n">
-        <v>115.3030546073417</v>
+        <v>63.28437850799713</v>
       </c>
       <c r="D26" t="n">
-        <v>285.4318190066495</v>
+        <v>230.7957159777142</v>
       </c>
       <c r="E26" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80.18417633254104</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.773954257457289</v>
+      </c>
+      <c r="D27" t="n">
+        <v>159.1732898790556</v>
+      </c>
+      <c r="E27" t="n">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B27" t="n">
-        <v>155.014883542851</v>
-      </c>
-      <c r="C27" t="n">
-        <v>80.02585678622295</v>
-      </c>
-      <c r="D27" t="n">
-        <v>235.0344126366846</v>
-      </c>
-      <c r="E27" t="n">
-        <v>96</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B28" t="n">
-        <v>77.80425241397157</v>
+        <v>44.13642268638378</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5328654315720506</v>
+        <v>-42.7791891456131</v>
       </c>
       <c r="D28" t="n">
-        <v>153.463311188266</v>
+        <v>122.6456870967482</v>
       </c>
       <c r="E28" t="n">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B29" t="n">
-        <v>36.55819154083592</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-41.43993306760066</v>
-      </c>
-      <c r="D29" t="n">
-        <v>116.6876443610172</v>
-      </c>
-      <c r="E29" t="n">
-        <v>96</v>
-      </c>
-      <c r="F29" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1097,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5608.357475375336</v>
+        <v>5262.196064623729</v>
       </c>
       <c r="C2" t="n">
-        <v>74.88896764794757</v>
+        <v>72.54099575153163</v>
       </c>
       <c r="D2" t="n">
-        <v>70.38903143180076</v>
+        <v>67.72862375553156</v>
       </c>
       <c r="E2" t="n">
-        <v>1.858416778013711</v>
+        <v>1.793565293717832</v>
       </c>
       <c r="F2" t="n">
-        <v>1.967298719447839</v>
+        <v>1.963119366544847</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9495498436276029</v>
+        <v>0.9138736494599271</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333334</v>
@@ -1123,22 +1103,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7284.041696817668</v>
+        <v>5435.586410090203</v>
       </c>
       <c r="C3" t="n">
-        <v>85.34659745307758</v>
+        <v>73.72642952218833</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52243009594675</v>
+        <v>71.31086297248169</v>
       </c>
       <c r="E3" t="n">
-        <v>1.367429818451729</v>
+        <v>1.243509971809989</v>
       </c>
       <c r="F3" t="n">
-        <v>1.421870789168793</v>
+        <v>1.838758886619069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7794716955324484</v>
+        <v>0.7143960137782512</v>
       </c>
       <c r="H3" t="n">
         <v>0.1666666666666667</v>
@@ -1149,25 +1129,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>11599.61609248993</v>
+        <v>11537.96676937006</v>
       </c>
       <c r="C4" t="n">
-        <v>107.701513882071</v>
+        <v>107.4149280564394</v>
       </c>
       <c r="D4" t="n">
-        <v>96.17692442948135</v>
+        <v>95.80426851812763</v>
       </c>
       <c r="E4" t="n">
-        <v>2.244311407308981</v>
+        <v>2.276318922028739</v>
       </c>
       <c r="F4" t="n">
-        <v>1.617543473038309</v>
+        <v>1.509318144986732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.922007657149301</v>
+        <v>0.9133534438815865</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4347826086956523</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44897</v>
       </c>
       <c r="B2" t="n">
-        <v>119.5218937000797</v>
+        <v>122.7953821729111</v>
       </c>
       <c r="C2" t="n">
-        <v>41.02057790447299</v>
+        <v>45.66652450019512</v>
       </c>
       <c r="D2" t="n">
-        <v>200.3242936403926</v>
+        <v>198.4872757727334</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
@@ -496,13 +496,13 @@
         <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>151.19471606162</v>
+        <v>154.7335816170667</v>
       </c>
       <c r="C3" t="n">
-        <v>74.82071104436861</v>
+        <v>71.94626384899505</v>
       </c>
       <c r="D3" t="n">
-        <v>229.612252891814</v>
+        <v>233.0304367374015</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44908</v>
       </c>
       <c r="B4" t="n">
-        <v>132.724566720632</v>
+        <v>142.6710340163672</v>
       </c>
       <c r="C4" t="n">
-        <v>55.02994081252795</v>
+        <v>55.63885865803593</v>
       </c>
       <c r="D4" t="n">
-        <v>214.2691315659042</v>
+        <v>218.3330529234141</v>
       </c>
       <c r="E4" t="n">
         <v>72</v>
@@ -536,13 +536,13 @@
         <v>44915</v>
       </c>
       <c r="B5" t="n">
-        <v>139.2587599673557</v>
+        <v>144.3878745084906</v>
       </c>
       <c r="C5" t="n">
-        <v>61.28118932144602</v>
+        <v>69.55338120046873</v>
       </c>
       <c r="D5" t="n">
-        <v>216.5350841266647</v>
+        <v>223.541546011448</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -556,13 +556,13 @@
         <v>44922</v>
       </c>
       <c r="B6" t="n">
-        <v>168.3091301322584</v>
+        <v>165.6117916236473</v>
       </c>
       <c r="C6" t="n">
-        <v>92.46478539964311</v>
+        <v>91.86800775227097</v>
       </c>
       <c r="D6" t="n">
-        <v>245.9620838691458</v>
+        <v>246.1341068387795</v>
       </c>
       <c r="E6" t="n">
         <v>54</v>
@@ -576,13 +576,13 @@
         <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>210.9252193907248</v>
+        <v>211.5062277044759</v>
       </c>
       <c r="C7" t="n">
-        <v>130.0356642712283</v>
+        <v>134.573119431058</v>
       </c>
       <c r="D7" t="n">
-        <v>292.7724454862013</v>
+        <v>285.942509608179</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -596,13 +596,13 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>226.0407902084632</v>
+        <v>231.6113215784163</v>
       </c>
       <c r="C8" t="n">
-        <v>143.9563859012819</v>
+        <v>149.1716195202709</v>
       </c>
       <c r="D8" t="n">
-        <v>303.9184967185307</v>
+        <v>309.0888374464446</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
@@ -616,13 +616,13 @@
         <v>44943</v>
       </c>
       <c r="B9" t="n">
-        <v>201.7609329106537</v>
+        <v>200.4017753827336</v>
       </c>
       <c r="C9" t="n">
-        <v>123.0204130178</v>
+        <v>120.458955851778</v>
       </c>
       <c r="D9" t="n">
-        <v>286.3897263011905</v>
+        <v>284.3418023614207</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
@@ -636,13 +636,13 @@
         <v>44950</v>
       </c>
       <c r="B10" t="n">
-        <v>132.5022491760066</v>
+        <v>128.9973144614325</v>
       </c>
       <c r="C10" t="n">
-        <v>50.59688197878118</v>
+        <v>46.85132748570272</v>
       </c>
       <c r="D10" t="n">
-        <v>216.1999820781447</v>
+        <v>210.5710560930111</v>
       </c>
       <c r="E10" t="n">
         <v>72</v>
@@ -656,13 +656,13 @@
         <v>44957</v>
       </c>
       <c r="B11" t="n">
-        <v>68.78188505651345</v>
+        <v>68.69536522822011</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.04605958459694</v>
+        <v>-4.690341351135474</v>
       </c>
       <c r="D11" t="n">
-        <v>152.1544085417463</v>
+        <v>148.1819621408174</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
@@ -676,13 +676,13 @@
         <v>44960</v>
       </c>
       <c r="B12" t="n">
-        <v>40.78703582836867</v>
+        <v>37.74633974184722</v>
       </c>
       <c r="C12" t="n">
-        <v>-39.5483452569497</v>
+        <v>-43.49308255038055</v>
       </c>
       <c r="D12" t="n">
-        <v>122.127517740702</v>
+        <v>116.6964971469584</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -696,13 +696,13 @@
         <v>44964</v>
       </c>
       <c r="B13" t="n">
-        <v>50.14617434067252</v>
+        <v>48.6905198769642</v>
       </c>
       <c r="C13" t="n">
-        <v>-29.69629803418273</v>
+        <v>-25.24955514519469</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2674034304787</v>
+        <v>128.9295163133954</v>
       </c>
       <c r="E13" t="n">
         <v>102</v>
@@ -716,13 +716,13 @@
         <v>44971</v>
       </c>
       <c r="B14" t="n">
-        <v>81.10355421646435</v>
+        <v>82.16372548891499</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.596740370395739</v>
+        <v>-1.791983119088119</v>
       </c>
       <c r="D14" t="n">
-        <v>165.9709431611709</v>
+        <v>164.0297533385441</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -736,13 +736,13 @@
         <v>44980</v>
       </c>
       <c r="B15" t="n">
-        <v>178.4615678220926</v>
+        <v>182.0924095613804</v>
       </c>
       <c r="C15" t="n">
-        <v>97.09920831166558</v>
+        <v>99.86351803971996</v>
       </c>
       <c r="D15" t="n">
-        <v>261.6874565405475</v>
+        <v>258.3327811469793</v>
       </c>
       <c r="E15" t="n">
         <v>138</v>
@@ -756,13 +756,13 @@
         <v>44985</v>
       </c>
       <c r="B16" t="n">
-        <v>153.9870342101021</v>
+        <v>150.5259229452915</v>
       </c>
       <c r="C16" t="n">
-        <v>75.68325139083014</v>
+        <v>67.14783983164887</v>
       </c>
       <c r="D16" t="n">
-        <v>234.6238317845911</v>
+        <v>229.7892049698532</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -776,13 +776,13 @@
         <v>44988</v>
       </c>
       <c r="B17" t="n">
-        <v>124.4510133948836</v>
+        <v>122.6106928125567</v>
       </c>
       <c r="C17" t="n">
-        <v>46.10265104494565</v>
+        <v>42.11890539125147</v>
       </c>
       <c r="D17" t="n">
-        <v>205.5402024589902</v>
+        <v>206.3382846453415</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -796,13 +796,13 @@
         <v>44992</v>
       </c>
       <c r="B18" t="n">
-        <v>141.783439330113</v>
+        <v>138.5752595290118</v>
       </c>
       <c r="C18" t="n">
-        <v>60.57003687991867</v>
+        <v>57.84627893814265</v>
       </c>
       <c r="D18" t="n">
-        <v>226.9890461890507</v>
+        <v>229.5647271139272</v>
       </c>
       <c r="E18" t="n">
         <v>84</v>
@@ -816,13 +816,13 @@
         <v>44999</v>
       </c>
       <c r="B19" t="n">
-        <v>135.4206111939607</v>
+        <v>131.9555465403594</v>
       </c>
       <c r="C19" t="n">
-        <v>54.14904818622073</v>
+        <v>50.91019374300281</v>
       </c>
       <c r="D19" t="n">
-        <v>211.1668725484502</v>
+        <v>211.1571383395698</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -836,13 +836,13 @@
         <v>45006</v>
       </c>
       <c r="B20" t="n">
-        <v>128.3202110807085</v>
+        <v>126.8663880911008</v>
       </c>
       <c r="C20" t="n">
-        <v>49.21562922840144</v>
+        <v>46.2375551018218</v>
       </c>
       <c r="D20" t="n">
-        <v>217.4769266400932</v>
+        <v>207.006361007976</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -856,13 +856,13 @@
         <v>45013</v>
       </c>
       <c r="B21" t="n">
-        <v>139.7492001831346</v>
+        <v>132.1011101971033</v>
       </c>
       <c r="C21" t="n">
-        <v>52.36954737906694</v>
+        <v>55.08220398532868</v>
       </c>
       <c r="D21" t="n">
-        <v>217.0190856107612</v>
+        <v>204.5147164783455</v>
       </c>
       <c r="E21" t="n">
         <v>66</v>
@@ -876,13 +876,13 @@
         <v>45020</v>
       </c>
       <c r="B22" t="n">
-        <v>178.5145087994659</v>
+        <v>177.69820773361</v>
       </c>
       <c r="C22" t="n">
-        <v>100.4546583130691</v>
+        <v>98.47102443081864</v>
       </c>
       <c r="D22" t="n">
-        <v>260.6788037806093</v>
+        <v>256.2253225418143</v>
       </c>
       <c r="E22" t="n">
         <v>114</v>
@@ -896,13 +896,13 @@
         <v>45027</v>
       </c>
       <c r="B23" t="n">
-        <v>221.1574187494244</v>
+        <v>218.7597807102865</v>
       </c>
       <c r="C23" t="n">
-        <v>136.6024155778056</v>
+        <v>146.5735368092995</v>
       </c>
       <c r="D23" t="n">
-        <v>303.1266865960901</v>
+        <v>294.8629425733818</v>
       </c>
       <c r="E23" t="n">
         <v>72</v>
@@ -916,13 +916,13 @@
         <v>45034</v>
       </c>
       <c r="B24" t="n">
-        <v>237.336268815882</v>
+        <v>233.1649246765287</v>
       </c>
       <c r="C24" t="n">
-        <v>159.3260142860308</v>
+        <v>157.198948564578</v>
       </c>
       <c r="D24" t="n">
-        <v>321.1001972746386</v>
+        <v>307.6418096157464</v>
       </c>
       <c r="E24" t="n">
         <v>72</v>
@@ -936,13 +936,13 @@
         <v>45040</v>
       </c>
       <c r="B25" t="n">
-        <v>182.8931021894318</v>
+        <v>176.5471814186644</v>
       </c>
       <c r="C25" t="n">
-        <v>109.6774277395014</v>
+        <v>92.69493685617819</v>
       </c>
       <c r="D25" t="n">
-        <v>267.2305691951736</v>
+        <v>252.1477502574326</v>
       </c>
       <c r="E25" t="n">
         <v>108</v>
@@ -956,13 +956,13 @@
         <v>45048</v>
       </c>
       <c r="B26" t="n">
-        <v>147.2901845549214</v>
+        <v>133.2855349569751</v>
       </c>
       <c r="C26" t="n">
-        <v>63.28437850799713</v>
+        <v>53.34067143625413</v>
       </c>
       <c r="D26" t="n">
-        <v>230.7957159777142</v>
+        <v>207.1070872314126</v>
       </c>
       <c r="E26" t="n">
         <v>96</v>
@@ -976,13 +976,13 @@
         <v>45055</v>
       </c>
       <c r="B27" t="n">
-        <v>80.18417633254104</v>
+        <v>68.75282822254231</v>
       </c>
       <c r="C27" t="n">
-        <v>1.773954257457289</v>
+        <v>-2.426236337060299</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1732898790556</v>
+        <v>144.6849192818166</v>
       </c>
       <c r="E27" t="n">
         <v>156</v>
@@ -996,13 +996,13 @@
         <v>45062</v>
       </c>
       <c r="B28" t="n">
-        <v>44.13642268638378</v>
+        <v>38.67670525696836</v>
       </c>
       <c r="C28" t="n">
-        <v>-42.7791891456131</v>
+        <v>-37.71657492102937</v>
       </c>
       <c r="D28" t="n">
-        <v>122.6456870967482</v>
+        <v>116.5728867912086</v>
       </c>
       <c r="E28" t="n">
         <v>96</v>
@@ -1077,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5262.196064623729</v>
+        <v>5427.459996472659</v>
       </c>
       <c r="C2" t="n">
-        <v>72.54099575153163</v>
+        <v>73.67129696477902</v>
       </c>
       <c r="D2" t="n">
-        <v>67.72862375553156</v>
+        <v>69.21991174787357</v>
       </c>
       <c r="E2" t="n">
-        <v>1.793565293717832</v>
+        <v>1.829408965649906</v>
       </c>
       <c r="F2" t="n">
-        <v>1.963119366544847</v>
+        <v>1.91930220982278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9138736494599271</v>
+        <v>0.9394264737697871</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333334</v>
@@ -1103,25 +1103,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5435.586410090203</v>
+        <v>5063.088038457975</v>
       </c>
       <c r="C3" t="n">
-        <v>73.72642952218833</v>
+        <v>71.15537954686191</v>
       </c>
       <c r="D3" t="n">
-        <v>71.31086297248169</v>
+        <v>68.88354658326899</v>
       </c>
       <c r="E3" t="n">
-        <v>1.243509971809989</v>
+        <v>1.232052544948399</v>
       </c>
       <c r="F3" t="n">
-        <v>1.838758886619069</v>
+        <v>1.863937765005299</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7143960137782512</v>
+        <v>0.7106124124694462</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1129,25 +1129,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>11537.96676937006</v>
+        <v>11530.16166700871</v>
       </c>
       <c r="C4" t="n">
-        <v>107.4149280564394</v>
+        <v>107.3785903567779</v>
       </c>
       <c r="D4" t="n">
-        <v>95.80426851812763</v>
+        <v>95.6178469833435</v>
       </c>
       <c r="E4" t="n">
-        <v>2.276318922028739</v>
+        <v>2.267194695203816</v>
       </c>
       <c r="F4" t="n">
-        <v>1.509318144986732</v>
+        <v>1.504806345805135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9133534438815865</v>
+        <v>0.9196584433950221</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.4545454545454541</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44897</v>
       </c>
       <c r="B2" t="n">
-        <v>122.7953821729111</v>
+        <v>123.6071804105814</v>
       </c>
       <c r="C2" t="n">
-        <v>45.66652450019512</v>
+        <v>47.45377863778972</v>
       </c>
       <c r="D2" t="n">
-        <v>198.4872757727334</v>
+        <v>207.3777253594081</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
@@ -496,13 +496,13 @@
         <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>154.7335816170667</v>
+        <v>152.3323945289714</v>
       </c>
       <c r="C3" t="n">
-        <v>71.94626384899505</v>
+        <v>74.8792852560487</v>
       </c>
       <c r="D3" t="n">
-        <v>233.0304367374015</v>
+        <v>229.1339307364384</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44908</v>
       </c>
       <c r="B4" t="n">
-        <v>142.6710340163672</v>
+        <v>131.1141143663541</v>
       </c>
       <c r="C4" t="n">
-        <v>55.63885865803593</v>
+        <v>44.51971538854945</v>
       </c>
       <c r="D4" t="n">
-        <v>218.3330529234141</v>
+        <v>205.5127652289294</v>
       </c>
       <c r="E4" t="n">
         <v>72</v>
@@ -536,13 +536,13 @@
         <v>44915</v>
       </c>
       <c r="B5" t="n">
-        <v>144.3878745084906</v>
+        <v>135.7619272213038</v>
       </c>
       <c r="C5" t="n">
-        <v>69.55338120046873</v>
+        <v>61.31340445991833</v>
       </c>
       <c r="D5" t="n">
-        <v>223.541546011448</v>
+        <v>214.4800130912546</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -556,13 +556,13 @@
         <v>44922</v>
       </c>
       <c r="B6" t="n">
-        <v>165.6117916236473</v>
+        <v>165.3059932851882</v>
       </c>
       <c r="C6" t="n">
-        <v>91.86800775227097</v>
+        <v>84.03734883563318</v>
       </c>
       <c r="D6" t="n">
-        <v>246.1341068387795</v>
+        <v>243.9331767611264</v>
       </c>
       <c r="E6" t="n">
         <v>54</v>
@@ -576,13 +576,13 @@
         <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>211.5062277044759</v>
+        <v>212.8710640426306</v>
       </c>
       <c r="C7" t="n">
-        <v>134.573119431058</v>
+        <v>136.0809221363484</v>
       </c>
       <c r="D7" t="n">
-        <v>285.942509608179</v>
+        <v>289.5355023817505</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -596,13 +596,13 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>231.6113215784163</v>
+        <v>228.5435803500607</v>
       </c>
       <c r="C8" t="n">
-        <v>149.1716195202709</v>
+        <v>149.2425518107901</v>
       </c>
       <c r="D8" t="n">
-        <v>309.0888374464446</v>
+        <v>311.7944478463517</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
@@ -616,13 +616,13 @@
         <v>44943</v>
       </c>
       <c r="B9" t="n">
-        <v>200.4017753827336</v>
+        <v>198.3408981195524</v>
       </c>
       <c r="C9" t="n">
-        <v>120.458955851778</v>
+        <v>116.7414205841821</v>
       </c>
       <c r="D9" t="n">
-        <v>284.3418023614207</v>
+        <v>277.9654186483891</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
@@ -636,13 +636,13 @@
         <v>44950</v>
       </c>
       <c r="B10" t="n">
-        <v>128.9973144614325</v>
+        <v>127.7829252808249</v>
       </c>
       <c r="C10" t="n">
-        <v>46.85132748570272</v>
+        <v>47.58476939690626</v>
       </c>
       <c r="D10" t="n">
-        <v>210.5710560930111</v>
+        <v>208.9471019187148</v>
       </c>
       <c r="E10" t="n">
         <v>72</v>
@@ -656,13 +656,13 @@
         <v>44957</v>
       </c>
       <c r="B11" t="n">
-        <v>68.69536522822011</v>
+        <v>70.72557584759718</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.690341351135474</v>
+        <v>-6.50459934034091</v>
       </c>
       <c r="D11" t="n">
-        <v>148.1819621408174</v>
+        <v>147.7553707747982</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
@@ -676,13 +676,13 @@
         <v>44960</v>
       </c>
       <c r="B12" t="n">
-        <v>37.74633974184722</v>
+        <v>43.8764388736237</v>
       </c>
       <c r="C12" t="n">
-        <v>-43.49308255038055</v>
+        <v>-36.46786650941186</v>
       </c>
       <c r="D12" t="n">
-        <v>116.6964971469584</v>
+        <v>135.2550769787609</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -696,13 +696,13 @@
         <v>44964</v>
       </c>
       <c r="B13" t="n">
-        <v>48.6905198769642</v>
+        <v>51.86547377588315</v>
       </c>
       <c r="C13" t="n">
-        <v>-25.24955514519469</v>
+        <v>-34.25090649421954</v>
       </c>
       <c r="D13" t="n">
-        <v>128.9295163133954</v>
+        <v>135.8179573506708</v>
       </c>
       <c r="E13" t="n">
         <v>102</v>
@@ -716,13 +716,13 @@
         <v>44971</v>
       </c>
       <c r="B14" t="n">
-        <v>82.16372548891499</v>
+        <v>82.77962717695712</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.791983119088119</v>
+        <v>0.03196498335530387</v>
       </c>
       <c r="D14" t="n">
-        <v>164.0297533385441</v>
+        <v>159.8533911802525</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -736,13 +736,13 @@
         <v>44980</v>
       </c>
       <c r="B15" t="n">
-        <v>182.0924095613804</v>
+        <v>172.830334759471</v>
       </c>
       <c r="C15" t="n">
-        <v>99.86351803971996</v>
+        <v>85.37981879774333</v>
       </c>
       <c r="D15" t="n">
-        <v>258.3327811469793</v>
+        <v>251.8319520072486</v>
       </c>
       <c r="E15" t="n">
         <v>138</v>
@@ -756,13 +756,13 @@
         <v>44985</v>
       </c>
       <c r="B16" t="n">
-        <v>150.5259229452915</v>
+        <v>151.6088208384982</v>
       </c>
       <c r="C16" t="n">
-        <v>67.14783983164887</v>
+        <v>71.22761221231291</v>
       </c>
       <c r="D16" t="n">
-        <v>229.7892049698532</v>
+        <v>233.1207764443757</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -776,13 +776,13 @@
         <v>44988</v>
       </c>
       <c r="B17" t="n">
-        <v>122.6106928125567</v>
+        <v>122.0249656891073</v>
       </c>
       <c r="C17" t="n">
-        <v>42.11890539125147</v>
+        <v>45.86941635867558</v>
       </c>
       <c r="D17" t="n">
-        <v>206.3382846453415</v>
+        <v>196.7225340248488</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -796,13 +796,13 @@
         <v>44992</v>
       </c>
       <c r="B18" t="n">
-        <v>138.5752595290118</v>
+        <v>141.0057674085817</v>
       </c>
       <c r="C18" t="n">
-        <v>57.84627893814265</v>
+        <v>60.61223902983194</v>
       </c>
       <c r="D18" t="n">
-        <v>229.5647271139272</v>
+        <v>218.505044303276</v>
       </c>
       <c r="E18" t="n">
         <v>84</v>
@@ -816,13 +816,13 @@
         <v>44999</v>
       </c>
       <c r="B19" t="n">
-        <v>131.9555465403594</v>
+        <v>135.7650497033196</v>
       </c>
       <c r="C19" t="n">
-        <v>50.91019374300281</v>
+        <v>59.00104377848417</v>
       </c>
       <c r="D19" t="n">
-        <v>211.1571383395698</v>
+        <v>219.377285330013</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -836,13 +836,13 @@
         <v>45006</v>
       </c>
       <c r="B20" t="n">
-        <v>126.8663880911008</v>
+        <v>126.0234577022239</v>
       </c>
       <c r="C20" t="n">
-        <v>46.2375551018218</v>
+        <v>50.67420674482922</v>
       </c>
       <c r="D20" t="n">
-        <v>207.006361007976</v>
+        <v>209.2589007766612</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -856,13 +856,13 @@
         <v>45013</v>
       </c>
       <c r="B21" t="n">
-        <v>132.1011101971033</v>
+        <v>131.4434626216568</v>
       </c>
       <c r="C21" t="n">
-        <v>55.08220398532868</v>
+        <v>48.64058210798687</v>
       </c>
       <c r="D21" t="n">
-        <v>204.5147164783455</v>
+        <v>214.0128590870931</v>
       </c>
       <c r="E21" t="n">
         <v>66</v>
@@ -876,13 +876,13 @@
         <v>45020</v>
       </c>
       <c r="B22" t="n">
-        <v>177.69820773361</v>
+        <v>169.5358300241519</v>
       </c>
       <c r="C22" t="n">
-        <v>98.47102443081864</v>
+        <v>89.0785538023424</v>
       </c>
       <c r="D22" t="n">
-        <v>256.2253225418143</v>
+        <v>250.707066544889</v>
       </c>
       <c r="E22" t="n">
         <v>114</v>
@@ -896,13 +896,13 @@
         <v>45027</v>
       </c>
       <c r="B23" t="n">
-        <v>218.7597807102865</v>
+        <v>232.0239114962327</v>
       </c>
       <c r="C23" t="n">
-        <v>146.5735368092995</v>
+        <v>148.8163346997094</v>
       </c>
       <c r="D23" t="n">
-        <v>294.8629425733818</v>
+        <v>304.8765895794721</v>
       </c>
       <c r="E23" t="n">
         <v>72</v>
@@ -916,13 +916,13 @@
         <v>45034</v>
       </c>
       <c r="B24" t="n">
-        <v>233.1649246765287</v>
+        <v>257.8314169406581</v>
       </c>
       <c r="C24" t="n">
-        <v>157.198948564578</v>
+        <v>184.8760432508199</v>
       </c>
       <c r="D24" t="n">
-        <v>307.6418096157464</v>
+        <v>341.0611002698016</v>
       </c>
       <c r="E24" t="n">
         <v>72</v>
@@ -936,13 +936,13 @@
         <v>45040</v>
       </c>
       <c r="B25" t="n">
-        <v>176.5471814186644</v>
+        <v>191.3036438337342</v>
       </c>
       <c r="C25" t="n">
-        <v>92.69493685617819</v>
+        <v>111.3081027973157</v>
       </c>
       <c r="D25" t="n">
-        <v>252.1477502574326</v>
+        <v>282.6825654292445</v>
       </c>
       <c r="E25" t="n">
         <v>108</v>
@@ -956,13 +956,13 @@
         <v>45048</v>
       </c>
       <c r="B26" t="n">
-        <v>133.2855349569751</v>
+        <v>157.3028818644113</v>
       </c>
       <c r="C26" t="n">
-        <v>53.34067143625413</v>
+        <v>78.95030212896538</v>
       </c>
       <c r="D26" t="n">
-        <v>207.1070872314126</v>
+        <v>240.1131478369585</v>
       </c>
       <c r="E26" t="n">
         <v>96</v>
@@ -976,13 +976,13 @@
         <v>45055</v>
       </c>
       <c r="B27" t="n">
-        <v>68.75282822254231</v>
+        <v>84.03467971398979</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.426236337060299</v>
+        <v>8.973744595502993</v>
       </c>
       <c r="D27" t="n">
-        <v>144.6849192818166</v>
+        <v>167.8470730623193</v>
       </c>
       <c r="E27" t="n">
         <v>156</v>
@@ -996,13 +996,13 @@
         <v>45062</v>
       </c>
       <c r="B28" t="n">
-        <v>38.67670525696836</v>
+        <v>46.08695943026645</v>
       </c>
       <c r="C28" t="n">
-        <v>-37.71657492102937</v>
+        <v>-35.55181040961017</v>
       </c>
       <c r="D28" t="n">
-        <v>116.5728867912086</v>
+        <v>123.1099149895997</v>
       </c>
       <c r="E28" t="n">
         <v>96</v>
@@ -1077,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5427.459996472659</v>
+        <v>5319.078016130319</v>
       </c>
       <c r="C2" t="n">
-        <v>73.67129696477902</v>
+        <v>72.93200954402887</v>
       </c>
       <c r="D2" t="n">
-        <v>69.21991174787357</v>
+        <v>67.25190240868834</v>
       </c>
       <c r="E2" t="n">
-        <v>1.829408965649906</v>
+        <v>1.805400229531541</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91930220982278</v>
+        <v>1.905356325931126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9394264737697871</v>
+        <v>0.893319408536619</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333334</v>
@@ -1103,25 +1103,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5063.088038457975</v>
+        <v>6129.287546053977</v>
       </c>
       <c r="C3" t="n">
-        <v>71.15537954686191</v>
+        <v>78.28976654744844</v>
       </c>
       <c r="D3" t="n">
-        <v>68.88354658326899</v>
+        <v>75.27777312121125</v>
       </c>
       <c r="E3" t="n">
-        <v>1.232052544948399</v>
+        <v>1.288365132514539</v>
       </c>
       <c r="F3" t="n">
-        <v>1.863937765005299</v>
+        <v>1.945784691258459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7106124124694462</v>
+        <v>0.7249845611484685</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1129,25 +1129,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>11530.16166700871</v>
+        <v>11825.32082891098</v>
       </c>
       <c r="C4" t="n">
-        <v>107.3785903567779</v>
+        <v>108.7442910175563</v>
       </c>
       <c r="D4" t="n">
-        <v>95.6178469833435</v>
+        <v>96.00507208631984</v>
       </c>
       <c r="E4" t="n">
-        <v>2.267194695203816</v>
+        <v>2.275970166751407</v>
       </c>
       <c r="F4" t="n">
-        <v>1.504806345805135</v>
+        <v>1.409970549628406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9196584433950221</v>
+        <v>0.9085944487665554</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4545454545454541</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
